--- a/sc2002/target/classes/Staff_List.xlsx
+++ b/sc2002/target/classes/Staff_List.xlsx
@@ -12,7 +12,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+  <si>
+    <t>Staff ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
   <si>
     <t>D001</t>
   </si>
@@ -26,6 +47,9 @@
     <t>Male</t>
   </si>
   <si>
+    <t>johnsmith@email.com</t>
+  </si>
+  <si>
     <t>D002</t>
   </si>
   <si>
@@ -35,6 +59,9 @@
     <t>Female</t>
   </si>
   <si>
+    <t>emilyclark@email.com</t>
+  </si>
+  <si>
     <t>P001</t>
   </si>
   <si>
@@ -44,6 +71,9 @@
     <t>Pharmacist</t>
   </si>
   <si>
+    <t>marklee@email.com</t>
+  </si>
+  <si>
     <t>A001</t>
   </si>
   <si>
@@ -53,10 +83,7 @@
     <t>Administrator</t>
   </si>
   <si>
-    <t>P002</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>sarahlee@email.com</t>
   </si>
   <si>
     <t>D003</t>
@@ -65,16 +92,43 @@
     <t>kokoko</t>
   </si>
   <si>
+    <t>kokoko@email.com</t>
+  </si>
+  <si>
     <t>A002</t>
   </si>
   <si>
     <t>Elise</t>
   </si>
   <si>
+    <t>elise@email.com</t>
+  </si>
+  <si>
     <t>P003</t>
   </si>
   <si>
     <t>Julie</t>
+  </si>
+  <si>
+    <t>julie@email.com</t>
+  </si>
+  <si>
+    <t>A003</t>
+  </si>
+  <si>
+    <t>jimmy</t>
+  </si>
+  <si>
+    <t>jimmy@email.com</t>
+  </si>
+  <si>
+    <t>P004</t>
+  </si>
+  <si>
+    <t>lucky</t>
+  </si>
+  <si>
+    <t>lucky@email.com</t>
   </si>
 </sst>
 </file>
@@ -119,146 +173,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n" s="0">
         <v>45.0</v>
       </c>
+      <c r="F2" t="n" s="0">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n" s="0">
         <v>38.0</v>
       </c>
+      <c r="F3" t="n" s="0">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>15</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4" t="n" s="0">
         <v>29.0</v>
       </c>
+      <c r="F4" t="n" s="0">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n" s="0">
         <v>40.0</v>
       </c>
+      <c r="F5" t="n" s="0">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>23</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>9</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>32.0</v>
+        <v>15.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>15.0</v>
+        <v>32.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="C8" t="s" s="0">
-        <v>12</v>
-      </c>
       <c r="D8" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>32.0</v>
+        <v>33.0</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>33.0</v>
+        <v>44.0</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>9.9999999E7</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>23.0</v>
+      </c>
+      <c r="F10" t="n" s="0">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Staff_List.xlsx
+++ b/sc2002/target/classes/Staff_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Staff ID</t>
   </si>
@@ -111,15 +111,6 @@
   </si>
   <si>
     <t>julie@email.com</t>
-  </si>
-  <si>
-    <t>A003</t>
-  </si>
-  <si>
-    <t>jimmy</t>
-  </si>
-  <si>
-    <t>jimmy@email.com</t>
   </si>
   <si>
     <t>P004</t>
@@ -173,7 +164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -371,42 +362,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>44.0</v>
+        <v>23.0</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>9.9999999E7</v>
+        <v>1.2345678E7</v>
       </c>
       <c r="G9" t="s" s="0">
         <v>35</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>23.0</v>
-      </c>
-      <c r="F10" t="n" s="0">
-        <v>1.2345678E7</v>
-      </c>
-      <c r="G10" t="s" s="0">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/sc2002/target/classes/Staff_List.xlsx
+++ b/sc2002/target/classes/Staff_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Staff ID</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>sarahlee@email.com</t>
+  </si>
+  <si>
+    <t>P002</t>
+  </si>
+  <si>
+    <t>Kenny Yeo</t>
+  </si>
+  <si>
+    <t>kennyyeo@email.com</t>
   </si>
 </sst>
 </file>
@@ -128,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -249,6 +258,29 @@
         <v>23</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>34.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>1.2345678E7</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
